--- a/apps/condo/domains/ticket/templates/ru/TicketAnalyticsExportTemplate[status_categoryClassifier].xlsx
+++ b/apps/condo/domains/ticket/templates/ru/TicketAnalyticsExportTemplate[status_categoryClassifier].xlsx
@@ -46,52 +46,52 @@
     <t xml:space="preserve">Открыта</t>
   </si>
   <si>
-    <t xml:space="preserve">{d.ticket[i].categoryClassifier}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{d.ticket[i].address}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{d.ticket[i].processing}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{d.ticket[i].completed}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{d.ticket[i].canceled}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{d.ticket[i].deferred}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{d.ticket[i].closed}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{d.ticket[i].new_or_reopened}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{d.ticket[i + 1].categoryClassifier}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{d.ticket[i + 1].address}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{d.ticket[i + 1].processing}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{d.ticket[i + 1].completed}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{d.ticket[i + 1].canceled}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{d.ticket[i + 1].deferred}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{d.ticket[i + 1].closed}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{d.ticket[i + 1].new_or_reopened}</t>
+    <t xml:space="preserve">{d.tickets[i].categoryClassifier}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d.tickets[i].address}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d.tickets[i].processing}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d.tickets[i].completed}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d.tickets[i].canceled}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d.tickets[i].deferred}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d.tickets[i].closed}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d.tickets[i].new_or_reopened}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d.tickets[i + 1].categoryClassifier}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d.tickets[i + 1].address}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d.tickets[i + 1].processing}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d.tickets[i + 1].completed}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d.tickets[i + 1].canceled}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d.tickets[i + 1].deferred}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d.tickets[i + 1].closed}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d.tickets[i + 1].new_or_reopened}</t>
   </si>
 </sst>
 </file>
@@ -101,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -134,9 +134,16 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="OpenSans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="OpenSans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -189,7 +196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -207,6 +214,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -290,7 +301,7 @@
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -333,55 +344,55 @@
       </c>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
